--- a/صيدليات دكتور مصطفي طلعت_2026-01-05_15-56.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-05_15-56.xlsx
@@ -146,6 +146,12 @@
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
     <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
   </si>
   <si>
@@ -186,9 +192,6 @@
   </si>
   <si>
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>5:0</t>
   </si>
   <si>
     <t>TIAPAIR 20 TABS</t>
@@ -1627,13 +1630,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
@@ -1645,7 +1648,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1653,13 +1656,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
@@ -1679,13 +1682,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>68.25</v>
+        <v>102</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
@@ -1697,7 +1700,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1705,13 +1708,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>24</v>
+        <v>68.25</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
@@ -1723,7 +1726,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1731,17 +1734,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1757,17 +1760,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1775,7 +1778,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1783,13 +1786,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
@@ -1801,7 +1804,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1809,17 +1812,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>14.1</v>
+        <v>18</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1841,11 +1844,11 @@
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>39</v>
+        <v>14.1</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
-        <v>1</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1867,7 +1870,7 @@
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
@@ -1887,13 +1890,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10">
@@ -1913,13 +1916,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="10">
@@ -1945,7 +1948,7 @@
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>234</v>
+        <v>60</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10">
@@ -1971,11 +1974,11 @@
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>76</v>
+        <v>234</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -1991,17 +1994,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="10">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2017,17 +2020,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2043,17 +2046,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>5</v>
+        <v>175</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2061,7 +2064,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2069,17 +2072,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>61.109999999999999</v>
+        <v>5</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2095,13 +2098,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>23.5</v>
+        <v>61.109999999999999</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="10">
@@ -2113,7 +2116,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2121,13 +2124,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>15</v>
+        <v>23.5</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="10">
@@ -2139,7 +2142,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2147,17 +2150,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2165,7 +2168,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2173,7 +2176,7 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
@@ -2183,7 +2186,7 @@
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2199,17 +2202,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2217,7 +2220,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2225,7 +2228,7 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
@@ -2243,7 +2246,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2251,51 +2254,77 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="59" ht="25.5" customHeight="1">
-      <c r="K59" s="11">
-        <v>4708.46</v>
-      </c>
-      <c r="L59" s="11"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="11"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="12">
+    <row r="59" ht="24.75" customHeight="1">
+      <c r="A59" s="6">
+        <v>56</v>
+      </c>
+      <c t="s" r="B59" s="7">
         <v>81</v>
       </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c t="s" r="F60" s="13">
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c t="s" r="H59" s="8">
+        <v>73</v>
+      </c>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="9">
+        <v>20</v>
+      </c>
+      <c r="M59" s="9"/>
+      <c r="N59" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" ht="26.25" customHeight="1">
+      <c r="K60" s="11">
+        <v>4739.46</v>
+      </c>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="12">
         <v>82</v>
       </c>
-      <c r="G60" s="13"/>
-      <c r="H60" s="14"/>
-      <c t="s" r="I60" s="15">
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c t="s" r="F61" s="13">
         <v>83</v>
       </c>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="14"/>
+      <c t="s" r="I61" s="15">
+        <v>84</v>
+      </c>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="176">
+  <mergeCells count="179">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2468,10 +2497,13 @@
     <mergeCell ref="B58:G58"/>
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="I60:N60"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="I61:N61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
